--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H2">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>1520.916416252223</v>
+        <v>1650.835686705132</v>
       </c>
       <c r="R2">
-        <v>13688.24774627</v>
+        <v>14857.52118034619</v>
       </c>
       <c r="S2">
-        <v>0.006282607435825249</v>
+        <v>0.01007503105411745</v>
       </c>
       <c r="T2">
-        <v>0.006282607435825249</v>
+        <v>0.01007503105411745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H3">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>6837.686235922029</v>
+        <v>6064.817939494988</v>
       </c>
       <c r="R3">
-        <v>61539.17612329826</v>
+        <v>54583.3614554549</v>
       </c>
       <c r="S3">
-        <v>0.02824514084442601</v>
+        <v>0.03701351356168901</v>
       </c>
       <c r="T3">
-        <v>0.02824514084442601</v>
+        <v>0.03701351356168901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H4">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>7549.860599837018</v>
+        <v>5821.378368587751</v>
       </c>
       <c r="R4">
-        <v>67948.74539853317</v>
+        <v>52392.40531728976</v>
       </c>
       <c r="S4">
-        <v>0.03118699347125335</v>
+        <v>0.03552780468318358</v>
       </c>
       <c r="T4">
-        <v>0.03118699347125336</v>
+        <v>0.03552780468318357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H5">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>1204.172624339662</v>
+        <v>1061.679229448876</v>
       </c>
       <c r="R5">
-        <v>10837.55361905695</v>
+        <v>9555.113065039885</v>
       </c>
       <c r="S5">
-        <v>0.004974200950724011</v>
+        <v>0.006479416026895886</v>
       </c>
       <c r="T5">
-        <v>0.004974200950724011</v>
+        <v>0.006479416026895885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H6">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>6725.58690949127</v>
+        <v>5309.235432086532</v>
       </c>
       <c r="R6">
-        <v>60530.28218542143</v>
+        <v>47783.11888877879</v>
       </c>
       <c r="S6">
-        <v>0.02778208051168246</v>
+        <v>0.03240220228013937</v>
       </c>
       <c r="T6">
-        <v>0.02778208051168246</v>
+        <v>0.03240220228013937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>4357.968553016546</v>
+        <v>5333.02958709985</v>
       </c>
       <c r="R7">
-        <v>39221.71697714891</v>
+        <v>47997.26628389864</v>
       </c>
       <c r="S7">
-        <v>0.0180019134146382</v>
+        <v>0.0325474177322866</v>
       </c>
       <c r="T7">
-        <v>0.0180019134146382</v>
+        <v>0.03254741773228659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>19592.41235949723</v>
+        <v>19592.41235949722</v>
       </c>
       <c r="R8">
         <v>176331.711235475</v>
       </c>
       <c r="S8">
-        <v>0.08093241302427942</v>
+        <v>0.1195722654511933</v>
       </c>
       <c r="T8">
-        <v>0.08093241302427942</v>
+        <v>0.1195722654511933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>21633.04618331637</v>
+        <v>18805.98010292881</v>
       </c>
       <c r="R9">
-        <v>194697.4156498473</v>
+        <v>169253.8209263592</v>
       </c>
       <c r="S9">
-        <v>0.08936187114461085</v>
+        <v>0.1147726785082308</v>
       </c>
       <c r="T9">
-        <v>0.08936187114461086</v>
+        <v>0.1147726785082308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>3450.384500554557</v>
+        <v>3429.757902775184</v>
       </c>
       <c r="R10">
-        <v>31053.46050499101</v>
+        <v>30867.82112497666</v>
       </c>
       <c r="S10">
-        <v>0.01425286168786106</v>
+        <v>0.02093177271175433</v>
       </c>
       <c r="T10">
-        <v>0.01425286168786106</v>
+        <v>0.02093177271175433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>19271.20776588557</v>
+        <v>17151.50082605027</v>
       </c>
       <c r="R11">
-        <v>173440.8698929702</v>
+        <v>154363.5074344524</v>
       </c>
       <c r="S11">
-        <v>0.07960557984220458</v>
+        <v>0.1046754106655334</v>
       </c>
       <c r="T11">
-        <v>0.07960557984220459</v>
+        <v>0.1046754106655334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H12">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>5098.200123412556</v>
+        <v>3108.029225858792</v>
       </c>
       <c r="R12">
-        <v>45883.801110713</v>
+        <v>27972.26303272912</v>
       </c>
       <c r="S12">
-        <v>0.02105966485890385</v>
+        <v>0.01896826632705637</v>
       </c>
       <c r="T12">
-        <v>0.02105966485890385</v>
+        <v>0.01896826632705637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H13">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>22920.32122168441</v>
+        <v>11418.23596210517</v>
       </c>
       <c r="R13">
-        <v>206282.8909951597</v>
+        <v>102764.1236589465</v>
       </c>
       <c r="S13">
-        <v>0.09467935186977258</v>
+        <v>0.06968536167948625</v>
       </c>
       <c r="T13">
-        <v>0.09467935186977258</v>
+        <v>0.06968536167948623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H14">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>25307.57103449762</v>
+        <v>10959.91215241074</v>
       </c>
       <c r="R14">
-        <v>227768.1393104786</v>
+        <v>98639.20937169662</v>
       </c>
       <c r="S14">
-        <v>0.1045406126628611</v>
+        <v>0.06688821678329793</v>
       </c>
       <c r="T14">
-        <v>0.1045406126628611</v>
+        <v>0.06688821678329791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H15">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>4036.456544499811</v>
+        <v>1998.824050260392</v>
       </c>
       <c r="R15">
-        <v>36328.1089004983</v>
+        <v>17989.41645234352</v>
       </c>
       <c r="S15">
-        <v>0.01667381036188019</v>
+        <v>0.01219880000188492</v>
       </c>
       <c r="T15">
-        <v>0.01667381036188019</v>
+        <v>0.01219880000188492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H16">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>22544.5577716113</v>
+        <v>9995.700373320909</v>
       </c>
       <c r="R16">
-        <v>202901.0199445017</v>
+        <v>89961.30335988819</v>
       </c>
       <c r="S16">
-        <v>0.09312714675165178</v>
+        <v>0.06100364347578437</v>
       </c>
       <c r="T16">
-        <v>0.09312714675165179</v>
+        <v>0.06100364347578437</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H17">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>956.1146878773761</v>
+        <v>1103.437161950616</v>
       </c>
       <c r="R17">
-        <v>8605.032190896385</v>
+        <v>9930.934457555544</v>
       </c>
       <c r="S17">
-        <v>0.003949522263926948</v>
+        <v>0.006734264204760554</v>
       </c>
       <c r="T17">
-        <v>0.003949522263926948</v>
+        <v>0.006734264204760553</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H18">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>4298.469114674774</v>
+        <v>4053.792602618279</v>
       </c>
       <c r="R18">
-        <v>38686.22203207296</v>
+        <v>36484.13342356451</v>
       </c>
       <c r="S18">
-        <v>0.01775613290378372</v>
+        <v>0.02474024924906161</v>
       </c>
       <c r="T18">
-        <v>0.01775613290378372</v>
+        <v>0.02474024924906161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H19">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>4746.173118913707</v>
+        <v>3891.07485221364</v>
       </c>
       <c r="R19">
-        <v>42715.55807022336</v>
+        <v>35019.67366992275</v>
       </c>
       <c r="S19">
-        <v>0.01960551034229629</v>
+        <v>0.02374718470509425</v>
       </c>
       <c r="T19">
-        <v>0.0196055103422963</v>
+        <v>0.02374718470509425</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H20">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>756.9956643035307</v>
+        <v>709.638351823584</v>
       </c>
       <c r="R20">
-        <v>6812.960978731775</v>
+        <v>6386.745166412255</v>
       </c>
       <c r="S20">
-        <v>0.00312700062845014</v>
+        <v>0.004330914632748897</v>
       </c>
       <c r="T20">
-        <v>0.00312700062845014</v>
+        <v>0.004330914632748897</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H21">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>4227.998567209899</v>
+        <v>3548.75274655704</v>
       </c>
       <c r="R21">
-        <v>38051.98710488909</v>
+        <v>31938.77471901336</v>
       </c>
       <c r="S21">
-        <v>0.0174650328927782</v>
+        <v>0.02165799686358065</v>
       </c>
       <c r="T21">
-        <v>0.0174650328927782</v>
+        <v>0.02165799686358065</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H22">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>3512.119731845449</v>
+        <v>2392.020614583394</v>
       </c>
       <c r="R22">
-        <v>31609.07758660904</v>
+        <v>21528.18553125055</v>
       </c>
       <c r="S22">
-        <v>0.01450787782090819</v>
+        <v>0.01459847407473778</v>
       </c>
       <c r="T22">
-        <v>0.01450787782090819</v>
+        <v>0.01459847407473778</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H23">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>15789.67291873012</v>
+        <v>8787.773157437461</v>
       </c>
       <c r="R23">
-        <v>142107.0562685711</v>
+        <v>79089.95841693715</v>
       </c>
       <c r="S23">
-        <v>0.06522404218169174</v>
+        <v>0.05363167768345949</v>
       </c>
       <c r="T23">
-        <v>0.06522404218169174</v>
+        <v>0.05363167768345949</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H24">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>17434.23511116392</v>
+        <v>8435.035161339452</v>
       </c>
       <c r="R24">
-        <v>156908.1160004753</v>
+        <v>75915.31645205508</v>
       </c>
       <c r="S24">
-        <v>0.07201740606970977</v>
+        <v>0.05147892178335678</v>
       </c>
       <c r="T24">
-        <v>0.07201740606970979</v>
+        <v>0.05147892178335677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H25">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>2780.690897474072</v>
+        <v>1538.347288811872</v>
       </c>
       <c r="R25">
-        <v>25026.21807726664</v>
+        <v>13845.12559930685</v>
       </c>
       <c r="S25">
-        <v>0.01148648875278169</v>
+        <v>0.009388515666105397</v>
       </c>
       <c r="T25">
-        <v>0.01148648875278169</v>
+        <v>0.009388515666105395</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H26">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>15530.81171368494</v>
+        <v>7692.952547309431</v>
       </c>
       <c r="R26">
-        <v>139777.3054231644</v>
+        <v>69236.57292578489</v>
       </c>
       <c r="S26">
-        <v>0.06415473731109859</v>
+        <v>0.04695000019456115</v>
       </c>
       <c r="T26">
-        <v>0.06415473731109861</v>
+        <v>0.04695000019456116</v>
       </c>
     </row>
   </sheetData>
